--- a/Excel/Maior+que+e+Menor+que.xlsx
+++ b/Excel/Maior+que+e+Menor+que.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02315068-BF17-4061-8245-801FC6E2A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B3D92-2771-42B0-B997-F4B0516B78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="894" activeTab="1" xr2:uid="{193F081A-02DB-4BD2-87B0-9E4D48AC40BC}"/>
+    <workbookView xWindow="1029" yWindow="4526" windowWidth="16114" windowHeight="13157" tabRatio="894" activeTab="1" xr2:uid="{193F081A-02DB-4BD2-87B0-9E4D48AC40BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="14" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="8">
     <dxf>
       <fill>
         <gradientFill>
@@ -307,138 +307,6 @@
           </stop>
           <stop position="1">
             <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
           </stop>
         </gradientFill>
       </fill>
@@ -509,10 +377,10 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela Dinâmica 1" table="0" count="1" xr9:uid="{0899B25B-2D16-4A37-8FB0-0893882EC093}">
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
     <tableStyle name="Estilo de Tabela Dinâmica 2" table="0" count="1" xr9:uid="{C8D3D828-D729-4C27-A447-A441ABC56B08}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1631,13 +1499,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G34">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1650,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDEF0D7-B775-4643-BF43-1CCD16C3E508}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2461,13 +2329,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G2:G34">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
